--- a/black_metals/data/up-stream/焦炭/焦炭基差.xlsx
+++ b/black_metals/data/up-stream/焦炭/焦炭基差.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\futures_nexus\black_metals\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141673C-FAF3-4C73-9F89-1506A42BEE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA40FD3-0BBC-42B8-9532-D96926F77B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="2550" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{73CA6ED6-8FF5-43B1-B683-B6EC6862CFBA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DC7178E6-3C90-484A-9859-719026F10A14}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvMoebLfL+hBhrnMwDxsoXBxRd8QGq+W6Kg0TzjNcb9Ql4PBvhQeY+Y2NCbP4zERBhYrxU/NHY9NRC9jBisv4CR8+GLfzqghI7Uq0bcpsb+Sq4dwy77PF9w2z0xtjtl5MFsjIZMQSW6/9B/FSZ8YwKFyu8hvqyq12fYWW3FyeInb1QF1CPguKolaUu3fldbu/Pi9bgKJx5UyShiDuRqBULRPxCIrIVOS5cK/JIqDqTf6lsrVFGHtGV5UvB5Ku+nz7sjKLJXwK0jw7iba/HRJKWK+1dHRu0LNZIIxHNkXlmXp4HxKHy6LtzdU6CW/ZAMCyq8YzkBuvYeJk7XxYbFTHUrOrtQc6jJSa5a57msGUhpX9lzxYFKZfqHJr0le97hf9+7BOySM9Y6C7taBD9GlldQ7QbISjKdgfOIo28ueoRrCrShWxBc17N86RxbEQJ5hsc6yGZ6aXkJOnIz9M55WLjxJXu3S0qcMz8+e2UzFGpwebNfWCYqCgpBUjwZSgORJq5/gU76H/PstQlG3UwNwIMfxRR5+f4RyeLnh4kvWXSd0lydoqF/9rvGc9hTzoRHW8mi/VA2GoDzxqbo1AyFifwDAHq59BsOwNXXPPmSdSeo45mO9gsexl3vMHYwWuR4IAAX5SSw9NwWPQ+fncmuErhnHyB4A9L8MJxWlRC37JbGFI+9yS5792gb4zpGPxXA1jEBxH/WY9a5bb30Y0GhkWKhFqEtzPqwMwhR0bFbaFWiWunuCQBQmgwMxIi4wdItY/T4ftCvgeq/021C2jglDwGo9DQZk8w0hrREfJYbNDN1kr8o3z4VXN7oaRnswBFo14SaPMt33TgZBPDYzQiosqDPeC3TDHJxY5HABSoAPm6Ey4v5KzH/bbc6yQ/hgzYwgNIUeLhzlJVaF9xRfKkZ0/4sZCZduKkDn44hk+I3TIutUU3NO2gDjKQvLRnYMESQN1s9yyziQjQYplrUxfRi6Z6SUHoDYa7dyPY/HxdCLjog3tA==</t>
+          <t>yVjpCgZpNvMoebLfL+hBhrnMwDxsoXBxRd8QGq+W6Kg0TzjNcb9Ql4PBvhQeY+Y2NCbP4zERBhYrxU/NHY9NRC9jBisv4CR8+GLfzqghI7Uq0bcpsb+Sq4dwy77PF9w2z0xtjtl5MFsjIZMQSW6/9B/FSZ8YwKFyu8hvqyq12fYWW3FyeInb1QF1CPguKolaUu3fldbu/Pi9bgKJx5UyShiDuRqBULRPxCIrIVOS5cK/JIqDqTf6lsrVFGHtGV5UvB5Ku+nz7sjKLJXwK0jw7iba/HRJKWK+1dHRu0LNZIIxHNkXlmXp4HxKHy6LtzdU6CW/ZAMCyq8YzkBuvYeJk7XxYbFTHUrOrtQc6jJSa5a57msGUhpX9lzxYFKZfqHJr0le97hf9+7BOySM9Y6C7taBD9GlldQ7QbISjKdgfOIo28ueoRrCrShWxBc17N86RxbEQJ5hsc6yGZ6aXkJOnIz9M55WLjxJXu3S0qcMz8+e2UzFGpwebNfWCYqCgpBUjwZSgORJq5/gU76H/PstQlG3UwNwIMfxRR5+f4RyeLnh4kvWXSd0lydoqF/9rvGc9hTzoRHW8mi/VA2GoDzxqbo1AyFifwDAHq59BsOwNXXPPmSdSeo45mO9gsexl3vMHYwWuR4IAAX5SSw9NwWPQ+fncmuErhnHyB4A9L8MJxWlRC37JbGFI+9yS5792gb4zpGPxXA1jEBxH/WY9a5bb30Y0GhkWKhFqEtzPqwMwhR0bFbaFWiWunuCQBQmgwMxIi4wdItY/T4ftCvgeq/021C2jglDwGo9DQZk8w0hrREfJYbNDN1kr8o3z4VXN7oaRnswBFo14SaPMt33TgZBPDYzQiosqDPeC3TDHJxY5HABSoAPm6Ey4v5KzH/bbc6y60XbOKIgFg7zIeH97Z+dWdAazF+zdbxDqlPcENBOzM3NoFEYGHgZ0CHaUYRzZ6ARgbSUkyo2I7pxGvnpQXcfZgHNsGIP2Z2J7NAAhlVQKJ6BTcXV6mjLtA==</t>
         </r>
       </text>
     </comment>
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -236,7 +236,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,10 +540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3126"/>
+  <dimension ref="A1:D3165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3092" workbookViewId="0">
-      <selection activeCell="D3126" sqref="D3126"/>
+    <sheetView tabSelected="1" topLeftCell="A3131" workbookViewId="0">
+      <selection activeCell="D3165" sqref="D3165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -43877,7 +43877,9 @@
       <c r="A3123" s="4">
         <v>45310</v>
       </c>
-      <c r="B3123" s="5"/>
+      <c r="B3123" s="5">
+        <v>2212.9</v>
+      </c>
       <c r="C3123" s="5">
         <v>2446</v>
       </c>
@@ -43885,8 +43887,552 @@
         <v>2435.5</v>
       </c>
     </row>
-    <row r="3126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3126" s="6" t="s">
+    <row r="3124" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3124" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B3124" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3124" s="5">
+        <v>2454</v>
+      </c>
+      <c r="D3124" s="5">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3125" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B3125" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3125" s="5">
+        <v>2482</v>
+      </c>
+      <c r="D3125" s="5">
+        <v>2472.5</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3126" s="4">
+        <v>45315</v>
+      </c>
+      <c r="B3126" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3126" s="5">
+        <v>2504</v>
+      </c>
+      <c r="D3126" s="5">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3127" s="4">
+        <v>45316</v>
+      </c>
+      <c r="B3127" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3127" s="5">
+        <v>2493.5</v>
+      </c>
+      <c r="D3127" s="5">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3128" s="4">
+        <v>45317</v>
+      </c>
+      <c r="B3128" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3128" s="5">
+        <v>2459.5</v>
+      </c>
+      <c r="D3128" s="5">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3129" s="4">
+        <v>45320</v>
+      </c>
+      <c r="B3129" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3129" s="5">
+        <v>2444</v>
+      </c>
+      <c r="D3129" s="5">
+        <v>2460.5</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3130" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B3130" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3130" s="5">
+        <v>2398</v>
+      </c>
+      <c r="D3130" s="5">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3131" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B3131" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3131" s="5">
+        <v>2346</v>
+      </c>
+      <c r="D3131" s="5">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3132" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B3132" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3132" s="5">
+        <v>2348.5</v>
+      </c>
+      <c r="D3132" s="5">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3133" s="4">
+        <v>45324</v>
+      </c>
+      <c r="B3133" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3133" s="5">
+        <v>2328</v>
+      </c>
+      <c r="D3133" s="5">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3134" s="4">
+        <v>45327</v>
+      </c>
+      <c r="B3134" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3134" s="5">
+        <v>2332.5</v>
+      </c>
+      <c r="D3134" s="5">
+        <v>2337.5</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3135" s="4">
+        <v>45328</v>
+      </c>
+      <c r="B3135" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3135" s="5">
+        <v>2330</v>
+      </c>
+      <c r="D3135" s="5">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3136" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B3136" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3136" s="5">
+        <v>2317.5</v>
+      </c>
+      <c r="D3136" s="5">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3137" s="4">
+        <v>45330</v>
+      </c>
+      <c r="B3137" s="5">
+        <v>2212.9</v>
+      </c>
+      <c r="C3137" s="5">
+        <v>2378</v>
+      </c>
+      <c r="D3137" s="5">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3138" s="4">
+        <v>45341</v>
+      </c>
+      <c r="B3138" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3138" s="5">
+        <v>2271</v>
+      </c>
+      <c r="D3138" s="5">
+        <v>2307.5</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3139" s="4">
+        <v>45342</v>
+      </c>
+      <c r="B3139" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3139" s="5">
+        <v>2255.5</v>
+      </c>
+      <c r="D3139" s="5">
+        <v>2269.5</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3140" s="4">
+        <v>45343</v>
+      </c>
+      <c r="B3140" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3140" s="5">
+        <v>2355.5</v>
+      </c>
+      <c r="D3140" s="5">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3141" s="4">
+        <v>45344</v>
+      </c>
+      <c r="B3141" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3141" s="5">
+        <v>2403.5</v>
+      </c>
+      <c r="D3141" s="5">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3142" s="4">
+        <v>45345</v>
+      </c>
+      <c r="B3142" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3142" s="5">
+        <v>2370.5</v>
+      </c>
+      <c r="D3142" s="5">
+        <v>2383.5</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3143" s="4">
+        <v>45348</v>
+      </c>
+      <c r="B3143" s="5">
+        <v>2112.9</v>
+      </c>
+      <c r="C3143" s="5">
+        <v>2314</v>
+      </c>
+      <c r="D3143" s="5">
+        <v>2344.5</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3144" s="4">
+        <v>45349</v>
+      </c>
+      <c r="B3144" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3144" s="5">
+        <v>2394</v>
+      </c>
+      <c r="D3144" s="5">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3145" s="4">
+        <v>45350</v>
+      </c>
+      <c r="B3145" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3145" s="5">
+        <v>2389</v>
+      </c>
+      <c r="D3145" s="5">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3146" s="4">
+        <v>45351</v>
+      </c>
+      <c r="B3146" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3146" s="5">
+        <v>2381.5</v>
+      </c>
+      <c r="D3146" s="5">
+        <v>2376.5</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3147" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B3147" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3147" s="5">
+        <v>2361.5</v>
+      </c>
+      <c r="D3147" s="5">
+        <v>2394.5</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3148" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B3148" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3148" s="5">
+        <v>2361</v>
+      </c>
+      <c r="D3148" s="5">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3149" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B3149" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3149" s="5">
+        <v>2326.5</v>
+      </c>
+      <c r="D3149" s="5">
+        <v>2337.5</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3150" s="4">
+        <v>45357</v>
+      </c>
+      <c r="B3150" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3150" s="5">
+        <v>2291</v>
+      </c>
+      <c r="D3150" s="5">
+        <v>2304.5</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3151" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B3151" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3151" s="5">
+        <v>2300</v>
+      </c>
+      <c r="D3151" s="5">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3152" s="4">
+        <v>45359</v>
+      </c>
+      <c r="B3152" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3152" s="5">
+        <v>2292</v>
+      </c>
+      <c r="D3152" s="5">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3153" s="4">
+        <v>45362</v>
+      </c>
+      <c r="B3153" s="5">
+        <v>2012.9</v>
+      </c>
+      <c r="C3153" s="5">
+        <v>2236.5</v>
+      </c>
+      <c r="D3153" s="5">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3154" s="4">
+        <v>45363</v>
+      </c>
+      <c r="B3154" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3154" s="5">
+        <v>2244</v>
+      </c>
+      <c r="D3154" s="5">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3155" s="4">
+        <v>45364</v>
+      </c>
+      <c r="B3155" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3155" s="5">
+        <v>2194.5</v>
+      </c>
+      <c r="D3155" s="5">
+        <v>2207.5</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3156" s="4">
+        <v>45365</v>
+      </c>
+      <c r="B3156" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3156" s="5">
+        <v>2168.5</v>
+      </c>
+      <c r="D3156" s="5">
+        <v>2178.5</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3157" s="4">
+        <v>45366</v>
+      </c>
+      <c r="B3157" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3157" s="5">
+        <v>2141</v>
+      </c>
+      <c r="D3157" s="5">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3158" s="4">
+        <v>45369</v>
+      </c>
+      <c r="B3158" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3158" s="5">
+        <v>2147</v>
+      </c>
+      <c r="D3158" s="5">
+        <v>2126.5</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3159" s="4">
+        <v>45370</v>
+      </c>
+      <c r="B3159" s="5">
+        <v>1912.9</v>
+      </c>
+      <c r="C3159" s="5">
+        <v>2179.5</v>
+      </c>
+      <c r="D3159" s="5">
+        <v>2159.5</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3160" s="4">
+        <v>45371</v>
+      </c>
+      <c r="B3160" s="5">
+        <v>1812.9</v>
+      </c>
+      <c r="C3160" s="5">
+        <v>2175</v>
+      </c>
+      <c r="D3160" s="5">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3161" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B3161" s="5">
+        <v>1812.9</v>
+      </c>
+      <c r="C3161" s="5">
+        <v>2186</v>
+      </c>
+      <c r="D3161" s="5">
+        <v>2172.5</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3162" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B3162" s="5"/>
+      <c r="C3162" s="5">
+        <v>2185.5</v>
+      </c>
+      <c r="D3162" s="5">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3165" s="6" t="s">
         <v>11</v>
       </c>
     </row>
